--- a/Data Files/bitcoin/xlsx Files/final_data.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1337">
   <si>
     <t>bitcoin_price</t>
   </si>
@@ -4019,6 +4019,12 @@
   </si>
   <si>
     <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1318"/>
+  <dimension ref="A1:R1320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -78190,6 +78196,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1319" spans="1:18">
+      <c r="A1319" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1319">
+        <v>29114.67565141242</v>
+      </c>
+      <c r="C1319">
+        <v>3</v>
+      </c>
+      <c r="D1319">
+        <v>0</v>
+      </c>
+      <c r="E1319">
+        <v>0</v>
+      </c>
+      <c r="F1319">
+        <v>0.9188924431800842</v>
+      </c>
+      <c r="G1319">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1319">
+        <v>29312.78143297408</v>
+      </c>
+      <c r="I1319">
+        <v>0</v>
+      </c>
+      <c r="J1319">
+        <v>-29.39690780639648</v>
+      </c>
+      <c r="K1319">
+        <v>72.76763916015625</v>
+      </c>
+      <c r="L1319">
+        <v>-76.26263427734375</v>
+      </c>
+      <c r="M1319">
+        <v>-0.9541715979576111</v>
+      </c>
+      <c r="N1319">
+        <v>-2082.051765717149</v>
+      </c>
+      <c r="O1319">
+        <v>-92.99260711669922</v>
+      </c>
+      <c r="P1319">
+        <v>-95.41236114501953</v>
+      </c>
+      <c r="Q1319">
+        <v>2.419751167297363</v>
+      </c>
+      <c r="R1319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:18">
+      <c r="A1320" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1320">
+        <v>27895.54510920212</v>
+      </c>
+      <c r="C1320">
+        <v>3</v>
+      </c>
+      <c r="D1320">
+        <v>0</v>
+      </c>
+      <c r="E1320">
+        <v>0</v>
+      </c>
+      <c r="F1320">
+        <v>0.9196296334266663</v>
+      </c>
+      <c r="G1320">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1320">
+        <v>29096.89301104491</v>
+      </c>
+      <c r="I1320">
+        <v>0</v>
+      </c>
+      <c r="J1320">
+        <v>-1219.130493164062</v>
+      </c>
+      <c r="K1320">
+        <v>66.01819610595703</v>
+      </c>
+      <c r="L1320">
+        <v>-163.3433837890625</v>
+      </c>
+      <c r="M1320">
+        <v>-0.4041681587696075</v>
+      </c>
+      <c r="N1320">
+        <v>-67.83258824070924</v>
+      </c>
+      <c r="O1320">
+        <v>-198.0761413574219</v>
+      </c>
+      <c r="P1320">
+        <v>-115.9451141357422</v>
+      </c>
+      <c r="Q1320">
+        <v>-82.13102722167969</v>
+      </c>
+      <c r="R1320">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/bitcoin/xlsx Files/final_data.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1360">
   <si>
     <t>bitcoin_price</t>
   </si>
@@ -4025,6 +4025,75 @@
   </si>
   <si>
     <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
   </si>
 </sst>
 </file>
@@ -4382,7 +4451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1320"/>
+  <dimension ref="A1:R1343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -78308,6 +78377,1294 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1321" spans="1:18">
+      <c r="A1321" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1321">
+        <v>26040.81931205392</v>
+      </c>
+      <c r="C1321">
+        <v>4</v>
+      </c>
+      <c r="D1321">
+        <v>0</v>
+      </c>
+      <c r="E1321">
+        <v>0</v>
+      </c>
+      <c r="F1321">
+        <v>0.9186590909957886</v>
+      </c>
+      <c r="G1321">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1321">
+        <v>28622.46625382259</v>
+      </c>
+      <c r="I1321">
+        <v>0</v>
+      </c>
+      <c r="J1321">
+        <v>-1854.725830078125</v>
+      </c>
+      <c r="K1321">
+        <v>66.01819610595703</v>
+      </c>
+      <c r="L1321">
+        <v>-276.9950866699219</v>
+      </c>
+      <c r="M1321">
+        <v>-0.238337054848671</v>
+      </c>
+      <c r="N1321">
+        <v>-31.29167034597793</v>
+      </c>
+      <c r="O1321">
+        <v>-426.1046142578125</v>
+      </c>
+      <c r="P1321">
+        <v>-177.9770202636719</v>
+      </c>
+      <c r="Q1321">
+        <v>-248.1275939941406</v>
+      </c>
+      <c r="R1321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:18">
+      <c r="A1322" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1322">
+        <v>26115.91295705558</v>
+      </c>
+      <c r="C1322">
+        <v>1</v>
+      </c>
+      <c r="D1322">
+        <v>0</v>
+      </c>
+      <c r="E1322">
+        <v>1</v>
+      </c>
+      <c r="F1322">
+        <v>0.9208352565765381</v>
+      </c>
+      <c r="G1322">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1322">
+        <v>28153.74502040421</v>
+      </c>
+      <c r="I1322">
+        <v>75.09364318847656</v>
+      </c>
+      <c r="J1322">
+        <v>0</v>
+      </c>
+      <c r="K1322">
+        <v>68.39273071289062</v>
+      </c>
+      <c r="L1322">
+        <v>-276.9950866699219</v>
+      </c>
+      <c r="M1322">
+        <v>-0.2469095438718796</v>
+      </c>
+      <c r="N1322">
+        <v>-32.78617326688044</v>
+      </c>
+      <c r="O1322">
+        <v>-593.9130859375</v>
+      </c>
+      <c r="P1322">
+        <v>-261.1642456054688</v>
+      </c>
+      <c r="Q1322">
+        <v>-332.7488708496094</v>
+      </c>
+      <c r="R1322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:18">
+      <c r="A1323" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1323">
+        <v>26137.35350149368</v>
+      </c>
+      <c r="C1323">
+        <v>2</v>
+      </c>
+      <c r="D1323">
+        <v>0</v>
+      </c>
+      <c r="E1323">
+        <v>0</v>
+      </c>
+      <c r="F1323">
+        <v>0.9267153143882751</v>
+      </c>
+      <c r="G1323">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1323">
+        <v>27682.25978157424</v>
+      </c>
+      <c r="I1323">
+        <v>21.44054412841797</v>
+      </c>
+      <c r="J1323">
+        <v>0</v>
+      </c>
+      <c r="K1323">
+        <v>69.34339141845703</v>
+      </c>
+      <c r="L1323">
+        <v>-276.9950866699219</v>
+      </c>
+      <c r="M1323">
+        <v>-0.2503415644168854</v>
+      </c>
+      <c r="N1323">
+        <v>-33.3940847645078</v>
+      </c>
+      <c r="O1323">
+        <v>-716.9083862304688</v>
+      </c>
+      <c r="P1323">
+        <v>-352.3130798339844</v>
+      </c>
+      <c r="Q1323">
+        <v>-364.5953369140625</v>
+      </c>
+      <c r="R1323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:18">
+      <c r="A1324" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1324">
+        <v>26086.51127135073</v>
+      </c>
+      <c r="C1324">
+        <v>4</v>
+      </c>
+      <c r="D1324">
+        <v>0</v>
+      </c>
+      <c r="E1324">
+        <v>0</v>
+      </c>
+      <c r="F1324">
+        <v>0.9173868894577026</v>
+      </c>
+      <c r="G1324">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1324">
+        <v>27219.2700516979</v>
+      </c>
+      <c r="I1324">
+        <v>0</v>
+      </c>
+      <c r="J1324">
+        <v>-50.84223175048828</v>
+      </c>
+      <c r="K1324">
+        <v>67.50422668457031</v>
+      </c>
+      <c r="L1324">
+        <v>-280.6266784667969</v>
+      </c>
+      <c r="M1324">
+        <v>-0.2405481487512589</v>
+      </c>
+      <c r="N1324">
+        <v>-31.67391614851874</v>
+      </c>
+      <c r="O1324">
+        <v>-809.1581420898438</v>
+      </c>
+      <c r="P1324">
+        <v>-443.6820983886719</v>
+      </c>
+      <c r="Q1324">
+        <v>-365.47607421875</v>
+      </c>
+      <c r="R1324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:18">
+      <c r="A1325" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1325">
+        <v>25826.03364121723</v>
+      </c>
+      <c r="C1325">
+        <v>2</v>
+      </c>
+      <c r="D1325">
+        <v>0</v>
+      </c>
+      <c r="E1325">
+        <v>1</v>
+      </c>
+      <c r="F1325">
+        <v>0.9216307997703552</v>
+      </c>
+      <c r="G1325">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1325">
+        <v>26745.26449196938</v>
+      </c>
+      <c r="I1325">
+        <v>0</v>
+      </c>
+      <c r="J1325">
+        <v>-260.4776306152344</v>
+      </c>
+      <c r="K1325">
+        <v>12.31983947753906</v>
+      </c>
+      <c r="L1325">
+        <v>-299.2322387695312</v>
+      </c>
+      <c r="M1325">
+        <v>-0.04117149859666824</v>
+      </c>
+      <c r="N1325">
+        <v>-4.293937653709733</v>
+      </c>
+      <c r="O1325">
+        <v>-892.9912719726562</v>
+      </c>
+      <c r="P1325">
+        <v>-533.5439453125</v>
+      </c>
+      <c r="Q1325">
+        <v>-359.4473266601562</v>
+      </c>
+      <c r="R1325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:18">
+      <c r="A1326" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1326">
+        <v>26641.12006805852</v>
+      </c>
+      <c r="C1326">
+        <v>3</v>
+      </c>
+      <c r="D1326">
+        <v>0</v>
+      </c>
+      <c r="E1326">
+        <v>0</v>
+      </c>
+      <c r="F1326">
+        <v>0.9164164066314697</v>
+      </c>
+      <c r="G1326">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1326">
+        <v>26391.89940863311</v>
+      </c>
+      <c r="I1326">
+        <v>815.08642578125</v>
+      </c>
+      <c r="J1326">
+        <v>0</v>
+      </c>
+      <c r="K1326">
+        <v>70.54029846191406</v>
+      </c>
+      <c r="L1326">
+        <v>-273.5218200683594</v>
+      </c>
+      <c r="M1326">
+        <v>-0.2578964233398438</v>
+      </c>
+      <c r="N1326">
+        <v>-34.7520789131535</v>
+      </c>
+      <c r="O1326">
+        <v>-883.4747924804688</v>
+      </c>
+      <c r="P1326">
+        <v>-603.5300903320312</v>
+      </c>
+      <c r="Q1326">
+        <v>-279.9447021484375</v>
+      </c>
+      <c r="R1326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:18">
+      <c r="A1327" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1327">
+        <v>26021.08163211241</v>
+      </c>
+      <c r="C1327">
+        <v>3</v>
+      </c>
+      <c r="D1327">
+        <v>0</v>
+      </c>
+      <c r="E1327">
+        <v>0</v>
+      </c>
+      <c r="F1327">
+        <v>0.924915075302124</v>
+      </c>
+      <c r="G1327">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1327">
+        <v>26124.11891190601</v>
+      </c>
+      <c r="I1327">
+        <v>0</v>
+      </c>
+      <c r="J1327">
+        <v>-620.0384521484375</v>
+      </c>
+      <c r="K1327">
+        <v>70.54029846191406</v>
+      </c>
+      <c r="L1327">
+        <v>-312.374755859375</v>
+      </c>
+      <c r="M1327">
+        <v>-0.2258194535970688</v>
+      </c>
+      <c r="N1327">
+        <v>-29.16883662952245</v>
+      </c>
+      <c r="O1327">
+        <v>-915.4125366210938</v>
+      </c>
+      <c r="P1327">
+        <v>-665.9065551757812</v>
+      </c>
+      <c r="Q1327">
+        <v>-249.5059356689453</v>
+      </c>
+      <c r="R1327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:18">
+      <c r="A1328" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1328">
+        <v>25949.31275796248</v>
+      </c>
+      <c r="C1328">
+        <v>1</v>
+      </c>
+      <c r="D1328">
+        <v>0</v>
+      </c>
+      <c r="E1328">
+        <v>0</v>
+      </c>
+      <c r="F1328">
+        <v>0.9253015518188477</v>
+      </c>
+      <c r="G1328">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1328">
+        <v>26111.04654703581</v>
+      </c>
+      <c r="I1328">
+        <v>0</v>
+      </c>
+      <c r="J1328">
+        <v>-71.76887512207031</v>
+      </c>
+      <c r="K1328">
+        <v>70.54029846191406</v>
+      </c>
+      <c r="L1328">
+        <v>-314.2898559570312</v>
+      </c>
+      <c r="M1328">
+        <v>-0.2244434505701065</v>
+      </c>
+      <c r="N1328">
+        <v>-28.93966169724754</v>
+      </c>
+      <c r="O1328">
+        <v>-935.7280883789062</v>
+      </c>
+      <c r="P1328">
+        <v>-719.870849609375</v>
+      </c>
+      <c r="Q1328">
+        <v>-215.8571929931641</v>
+      </c>
+      <c r="R1328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:18">
+      <c r="A1329" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1329">
+        <v>26025.2295197059</v>
+      </c>
+      <c r="C1329">
+        <v>1</v>
+      </c>
+      <c r="D1329">
+        <v>0</v>
+      </c>
+      <c r="E1329">
+        <v>0</v>
+      </c>
+      <c r="F1329">
+        <v>0.9260709285736084</v>
+      </c>
+      <c r="G1329">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1329">
+        <v>26098.09177027157</v>
+      </c>
+      <c r="I1329">
+        <v>75.91676330566406</v>
+      </c>
+      <c r="J1329">
+        <v>0</v>
+      </c>
+      <c r="K1329">
+        <v>73.45185089111328</v>
+      </c>
+      <c r="L1329">
+        <v>-314.2898559570312</v>
+      </c>
+      <c r="M1329">
+        <v>-0.2337073683738708</v>
+      </c>
+      <c r="N1329">
+        <v>-30.49844823386931</v>
+      </c>
+      <c r="O1329">
+        <v>-934.9251708984375</v>
+      </c>
+      <c r="P1329">
+        <v>-762.8817138671875</v>
+      </c>
+      <c r="Q1329">
+        <v>-172.04345703125</v>
+      </c>
+      <c r="R1329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:18">
+      <c r="A1330" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1330">
+        <v>26112.34304465044</v>
+      </c>
+      <c r="C1330">
+        <v>2</v>
+      </c>
+      <c r="D1330">
+        <v>0</v>
+      </c>
+      <c r="E1330">
+        <v>0</v>
+      </c>
+      <c r="F1330">
+        <v>0.9291095733642578</v>
+      </c>
+      <c r="G1330">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1330">
+        <v>26094.51884786538</v>
+      </c>
+      <c r="I1330">
+        <v>87.113525390625</v>
+      </c>
+      <c r="J1330">
+        <v>0</v>
+      </c>
+      <c r="K1330">
+        <v>76.76078033447266</v>
+      </c>
+      <c r="L1330">
+        <v>-314.2898559570312</v>
+      </c>
+      <c r="M1330">
+        <v>-0.2442356199026108</v>
+      </c>
+      <c r="N1330">
+        <v>-32.31637094024953</v>
+      </c>
+      <c r="O1330">
+        <v>-916.6925048828125</v>
+      </c>
+      <c r="P1330">
+        <v>-793.6439208984375</v>
+      </c>
+      <c r="Q1330">
+        <v>-123.0486297607422</v>
+      </c>
+      <c r="R1330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:18">
+      <c r="A1331" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1331">
+        <v>25975.58230041972</v>
+      </c>
+      <c r="C1331">
+        <v>2</v>
+      </c>
+      <c r="D1331">
+        <v>0</v>
+      </c>
+      <c r="E1331">
+        <v>0</v>
+      </c>
+      <c r="F1331">
+        <v>0.9245288372039795</v>
+      </c>
+      <c r="G1331">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1331">
+        <v>26078.6718520181</v>
+      </c>
+      <c r="I1331">
+        <v>0</v>
+      </c>
+      <c r="J1331">
+        <v>-136.7607421875</v>
+      </c>
+      <c r="K1331">
+        <v>76.76078033447266</v>
+      </c>
+      <c r="L1331">
+        <v>-316.1791381835938</v>
+      </c>
+      <c r="M1331">
+        <v>-0.2427762299776077</v>
+      </c>
+      <c r="N1331">
+        <v>-32.06135814561739</v>
+      </c>
+      <c r="O1331">
+        <v>-902.8707275390625</v>
+      </c>
+      <c r="P1331">
+        <v>-815.4892578125</v>
+      </c>
+      <c r="Q1331">
+        <v>-87.38146209716797</v>
+      </c>
+      <c r="R1331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:18">
+      <c r="A1332" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1332">
+        <v>27852.18330418598</v>
+      </c>
+      <c r="C1332">
+        <v>5</v>
+      </c>
+      <c r="D1332">
+        <v>0</v>
+      </c>
+      <c r="E1332">
+        <v>0</v>
+      </c>
+      <c r="F1332">
+        <v>0.9182388186454773</v>
+      </c>
+      <c r="G1332">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1332">
+        <v>26368.12180387078</v>
+      </c>
+      <c r="I1332">
+        <v>1876.600952148438</v>
+      </c>
+      <c r="J1332">
+        <v>0</v>
+      </c>
+      <c r="K1332">
+        <v>210.8037109375</v>
+      </c>
+      <c r="L1332">
+        <v>-303.0815124511719</v>
+      </c>
+      <c r="M1332">
+        <v>-0.6955347061157227</v>
+      </c>
+      <c r="N1332">
+        <v>-228.44465150663</v>
+      </c>
+      <c r="O1332">
+        <v>-732.0521850585938</v>
+      </c>
+      <c r="P1332">
+        <v>-798.8018188476562</v>
+      </c>
+      <c r="Q1332">
+        <v>66.74966430664062</v>
+      </c>
+      <c r="R1332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:18">
+      <c r="A1333" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1333">
+        <v>27251.96914888735</v>
+      </c>
+      <c r="C1333">
+        <v>4</v>
+      </c>
+      <c r="D1333">
+        <v>0</v>
+      </c>
+      <c r="E1333">
+        <v>1</v>
+      </c>
+      <c r="F1333">
+        <v>0.9140910506248474</v>
+      </c>
+      <c r="G1333">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1333">
+        <v>26455.3859582749</v>
+      </c>
+      <c r="I1333">
+        <v>0</v>
+      </c>
+      <c r="J1333">
+        <v>-600.2141723632812</v>
+      </c>
+      <c r="K1333">
+        <v>210.8037109375</v>
+      </c>
+      <c r="L1333">
+        <v>-343.8541870117188</v>
+      </c>
+      <c r="M1333">
+        <v>-0.6130613684654236</v>
+      </c>
+      <c r="N1333">
+        <v>-158.4389114836166</v>
+      </c>
+      <c r="O1333">
+        <v>-637.7578735351562</v>
+      </c>
+      <c r="P1333">
+        <v>-766.593017578125</v>
+      </c>
+      <c r="Q1333">
+        <v>128.835205078125</v>
+      </c>
+      <c r="R1333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:18">
+      <c r="A1334" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1334">
+        <v>26179.07181383978</v>
+      </c>
+      <c r="C1334">
+        <v>4</v>
+      </c>
+      <c r="D1334">
+        <v>0</v>
+      </c>
+      <c r="E1334">
+        <v>1</v>
+      </c>
+      <c r="F1334">
+        <v>0.9183313250541687</v>
+      </c>
+      <c r="G1334">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1334">
+        <v>26477.95598423595</v>
+      </c>
+      <c r="I1334">
+        <v>0</v>
+      </c>
+      <c r="J1334">
+        <v>-1072.897338867188</v>
+      </c>
+      <c r="K1334">
+        <v>210.8037109375</v>
+      </c>
+      <c r="L1334">
+        <v>-333.408935546875</v>
+      </c>
+      <c r="M1334">
+        <v>-0.6322677135467529</v>
+      </c>
+      <c r="N1334">
+        <v>-171.9369543766936</v>
+      </c>
+      <c r="O1334">
+        <v>-642.1998901367188</v>
+      </c>
+      <c r="P1334">
+        <v>-741.7144165039062</v>
+      </c>
+      <c r="Q1334">
+        <v>99.51453399658203</v>
+      </c>
+      <c r="R1334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:18">
+      <c r="A1335" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1335">
+        <v>25581.65193106596</v>
+      </c>
+      <c r="C1335">
+        <v>3</v>
+      </c>
+      <c r="D1335">
+        <v>0</v>
+      </c>
+      <c r="E1335">
+        <v>0</v>
+      </c>
+      <c r="F1335">
+        <v>0.9275432229042053</v>
+      </c>
+      <c r="G1335">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1335">
+        <v>26425.43300896502</v>
+      </c>
+      <c r="I1335">
+        <v>0</v>
+      </c>
+      <c r="J1335">
+        <v>-597.4198608398438</v>
+      </c>
+      <c r="K1335">
+        <v>210.8037109375</v>
+      </c>
+      <c r="L1335">
+        <v>-243.6013793945312</v>
+      </c>
+      <c r="M1335">
+        <v>-0.8653633594512939</v>
+      </c>
+      <c r="N1335">
+        <v>-642.7398872248401</v>
+      </c>
+      <c r="O1335">
+        <v>-686.0189819335938</v>
+      </c>
+      <c r="P1335">
+        <v>-730.5753173828125</v>
+      </c>
+      <c r="Q1335">
+        <v>44.55632400512695</v>
+      </c>
+      <c r="R1335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:18">
+      <c r="A1336" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1336">
+        <v>25845.21631827925</v>
+      </c>
+      <c r="C1336">
+        <v>3</v>
+      </c>
+      <c r="D1336">
+        <v>0</v>
+      </c>
+      <c r="E1336">
+        <v>0</v>
+      </c>
+      <c r="F1336">
+        <v>0.9226861000061035</v>
+      </c>
+      <c r="G1336">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1336">
+        <v>26399.71683733264</v>
+      </c>
+      <c r="I1336">
+        <v>263.5643920898438</v>
+      </c>
+      <c r="J1336">
+        <v>0</v>
+      </c>
+      <c r="K1336">
+        <v>224.2658996582031</v>
+      </c>
+      <c r="L1336">
+        <v>-243.6013793945312</v>
+      </c>
+      <c r="M1336">
+        <v>-0.9206265807151794</v>
+      </c>
+      <c r="N1336">
+        <v>-1159.867615327547</v>
+      </c>
+      <c r="O1336">
+        <v>-691.5072631835938</v>
+      </c>
+      <c r="P1336">
+        <v>-722.76171875</v>
+      </c>
+      <c r="Q1336">
+        <v>31.25444221496582</v>
+      </c>
+      <c r="R1336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:18">
+      <c r="A1337" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1337">
+        <v>25991.65745373537</v>
+      </c>
+      <c r="C1337">
+        <v>3</v>
+      </c>
+      <c r="D1337">
+        <v>0</v>
+      </c>
+      <c r="E1337">
+        <v>0</v>
+      </c>
+      <c r="F1337">
+        <v>0.9284101128578186</v>
+      </c>
+      <c r="G1337">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1337">
+        <v>26382.47603863049</v>
+      </c>
+      <c r="I1337">
+        <v>146.4411315917969</v>
+      </c>
+      <c r="J1337">
+        <v>0</v>
+      </c>
+      <c r="K1337">
+        <v>233.1945190429688</v>
+      </c>
+      <c r="L1337">
+        <v>-243.6013793945312</v>
+      </c>
+      <c r="M1337">
+        <v>-0.9572791457176208</v>
+      </c>
+      <c r="N1337">
+        <v>-2240.776802251079</v>
+      </c>
+      <c r="O1337">
+        <v>-676.244873046875</v>
+      </c>
+      <c r="P1337">
+        <v>-713.4583740234375</v>
+      </c>
+      <c r="Q1337">
+        <v>37.21348571777344</v>
+      </c>
+      <c r="R1337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:18">
+      <c r="A1338" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1338">
+        <v>25871.5364941652</v>
+      </c>
+      <c r="C1338">
+        <v>2</v>
+      </c>
+      <c r="D1338">
+        <v>0</v>
+      </c>
+      <c r="E1338">
+        <v>1</v>
+      </c>
+      <c r="F1338">
+        <v>0.9265092611312866</v>
+      </c>
+      <c r="G1338">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1338">
+        <v>26367.6123520227</v>
+      </c>
+      <c r="I1338">
+        <v>0</v>
+      </c>
+      <c r="J1338">
+        <v>-120.1209564208984</v>
+      </c>
+      <c r="K1338">
+        <v>233.1945190429688</v>
+      </c>
+      <c r="L1338">
+        <v>-248.5498657226562</v>
+      </c>
+      <c r="M1338">
+        <v>-0.9382202625274658</v>
+      </c>
+      <c r="N1338">
+        <v>-1518.654087101288</v>
+      </c>
+      <c r="O1338">
+        <v>-666.1629638671875</v>
+      </c>
+      <c r="P1338">
+        <v>-703.999267578125</v>
+      </c>
+      <c r="Q1338">
+        <v>37.83633041381836</v>
+      </c>
+      <c r="R1338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:18">
+      <c r="A1339" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1339">
+        <v>25706.43383971701</v>
+      </c>
+      <c r="C1339">
+        <v>2</v>
+      </c>
+      <c r="D1339">
+        <v>0</v>
+      </c>
+      <c r="E1339">
+        <v>0</v>
+      </c>
+      <c r="F1339">
+        <v>0.9320291876792908</v>
+      </c>
+      <c r="G1339">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1339">
+        <v>26061.07671424142</v>
+      </c>
+      <c r="I1339">
+        <v>0</v>
+      </c>
+      <c r="J1339">
+        <v>-165.1026611328125</v>
+      </c>
+      <c r="K1339">
+        <v>233.1945190429688</v>
+      </c>
+      <c r="L1339">
+        <v>-241.7373657226562</v>
+      </c>
+      <c r="M1339">
+        <v>-0.96466064453125</v>
+      </c>
+      <c r="N1339">
+        <v>-2729.706236141918</v>
+      </c>
+      <c r="O1339">
+        <v>-663.8429565429688</v>
+      </c>
+      <c r="P1339">
+        <v>-695.968017578125</v>
+      </c>
+      <c r="Q1339">
+        <v>32.12503433227539</v>
+      </c>
+      <c r="R1339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:18">
+      <c r="A1340" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1340">
+        <v>25643.30464824743</v>
+      </c>
+      <c r="C1340">
+        <v>9</v>
+      </c>
+      <c r="D1340">
+        <v>0</v>
+      </c>
+      <c r="E1340">
+        <v>0</v>
+      </c>
+      <c r="F1340">
+        <v>0.9321445822715759</v>
+      </c>
+      <c r="G1340">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1340">
+        <v>25831.26749986429</v>
+      </c>
+      <c r="I1340">
+        <v>0</v>
+      </c>
+      <c r="J1340">
+        <v>-63.12919235229492</v>
+      </c>
+      <c r="K1340">
+        <v>174.9740600585938</v>
+      </c>
+      <c r="L1340">
+        <v>-246.24658203125</v>
+      </c>
+      <c r="M1340">
+        <v>-0.7105643749237061</v>
+      </c>
+      <c r="N1340">
+        <v>-245.499995739433</v>
+      </c>
+      <c r="O1340">
+        <v>-659.4961547851562</v>
+      </c>
+      <c r="P1340">
+        <v>-688.6736450195312</v>
+      </c>
+      <c r="Q1340">
+        <v>29.1775074005127</v>
+      </c>
+      <c r="R1340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:18">
+      <c r="A1341" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1341">
+        <v>25871.77707088979</v>
+      </c>
+      <c r="C1341">
+        <v>4</v>
+      </c>
+      <c r="D1341">
+        <v>0</v>
+      </c>
+      <c r="E1341">
+        <v>1</v>
+      </c>
+      <c r="F1341">
+        <v>0.9334941506385803</v>
+      </c>
+      <c r="G1341">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1341">
+        <v>25787.36825087143</v>
+      </c>
+      <c r="I1341">
+        <v>228.4724273681641</v>
+      </c>
+      <c r="J1341">
+        <v>0</v>
+      </c>
+      <c r="K1341">
+        <v>191.2935180664062</v>
+      </c>
+      <c r="L1341">
+        <v>-201.9581298828125</v>
+      </c>
+      <c r="M1341">
+        <v>-0.9471939206123352</v>
+      </c>
+      <c r="N1341">
+        <v>-1793.722317547113</v>
+      </c>
+      <c r="O1341">
+        <v>-630.34912109375</v>
+      </c>
+      <c r="P1341">
+        <v>-677.0087280273438</v>
+      </c>
+      <c r="Q1341">
+        <v>46.65960311889648</v>
+      </c>
+      <c r="R1341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:18">
+      <c r="A1342" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1342">
+        <v>25880.11091714333</v>
+      </c>
+      <c r="C1342">
+        <v>2</v>
+      </c>
+      <c r="D1342">
+        <v>0</v>
+      </c>
+      <c r="E1342">
+        <v>0</v>
+      </c>
+      <c r="F1342">
+        <v>0.9327919483184814</v>
+      </c>
+      <c r="G1342">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1342">
+        <v>25830.00524888248</v>
+      </c>
+      <c r="I1342">
+        <v>8.333846092224121</v>
+      </c>
+      <c r="J1342">
+        <v>0</v>
+      </c>
+      <c r="K1342">
+        <v>191.8887939453125</v>
+      </c>
+      <c r="L1342">
+        <v>-196.831787109375</v>
+      </c>
+      <c r="M1342">
+        <v>-0.9748872518539429</v>
+      </c>
+      <c r="N1342">
+        <v>-3882.039914284962</v>
+      </c>
+      <c r="O1342">
+        <v>-599.6649169921875</v>
+      </c>
+      <c r="P1342">
+        <v>-661.5399780273438</v>
+      </c>
+      <c r="Q1342">
+        <v>61.87507629394531</v>
+      </c>
+      <c r="R1342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:18">
+      <c r="A1343" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1343">
+        <v>25857.72787564452</v>
+      </c>
+      <c r="C1343">
+        <v>3</v>
+      </c>
+      <c r="D1343">
+        <v>0</v>
+      </c>
+      <c r="E1343">
+        <v>0</v>
+      </c>
+      <c r="F1343">
+        <v>0.9327130317687988</v>
+      </c>
+      <c r="G1343">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1343">
+        <v>25831.79261422038</v>
+      </c>
+      <c r="I1343">
+        <v>0</v>
+      </c>
+      <c r="J1343">
+        <v>-22.38304138183594</v>
+      </c>
+      <c r="K1343">
+        <v>186.4661712646484</v>
+      </c>
+      <c r="L1343">
+        <v>-198.4305725097656</v>
+      </c>
+      <c r="M1343">
+        <v>-0.9397048354148865</v>
+      </c>
+      <c r="N1343">
+        <v>-1558.507879074607</v>
+      </c>
+      <c r="O1343">
+        <v>-570.5762939453125</v>
+      </c>
+      <c r="P1343">
+        <v>-643.3472290039062</v>
+      </c>
+      <c r="Q1343">
+        <v>72.77094268798828</v>
+      </c>
+      <c r="R1343">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/bitcoin/xlsx Files/final_data.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1360"/>
+  <dimension ref="A1:R1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78380,7 +78380,7 @@
         <v>0</v>
       </c>
       <c r="F1344" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9337349534034729</v>
       </c>
       <c r="G1344" t="n">
         <v>5.079999923706055</v>
@@ -78438,7 +78438,7 @@
         <v>0</v>
       </c>
       <c r="F1345" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.934756875038147</v>
       </c>
       <c r="G1345" t="n">
         <v>5.079999923706055</v>
@@ -78496,7 +78496,7 @@
         <v>0</v>
       </c>
       <c r="F1346" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.935778796672821</v>
       </c>
       <c r="G1346" t="n">
         <v>5.079999923706055</v>
@@ -78554,7 +78554,7 @@
         <v>0</v>
       </c>
       <c r="F1347" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9368007183074951</v>
       </c>
       <c r="G1347" t="n">
         <v>5.079999923706055</v>
@@ -78612,7 +78612,7 @@
         <v>0</v>
       </c>
       <c r="F1348" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9378226399421692</v>
       </c>
       <c r="G1348" t="n">
         <v>5.079999923706055</v>
@@ -78670,7 +78670,7 @@
         <v>0</v>
       </c>
       <c r="F1349" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9388445615768433</v>
       </c>
       <c r="G1349" t="n">
         <v>5.079999923706055</v>
@@ -78728,7 +78728,7 @@
         <v>0</v>
       </c>
       <c r="F1350" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9398664832115173</v>
       </c>
       <c r="G1350" t="n">
         <v>5.079999923706055</v>
@@ -78786,7 +78786,7 @@
         <v>0</v>
       </c>
       <c r="F1351" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9408884048461914</v>
       </c>
       <c r="G1351" t="n">
         <v>5.079999923706055</v>
@@ -78844,7 +78844,7 @@
         <v>0</v>
       </c>
       <c r="F1352" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9419103264808655</v>
       </c>
       <c r="G1352" t="n">
         <v>5.079999923706055</v>
@@ -78902,7 +78902,7 @@
         <v>0</v>
       </c>
       <c r="F1353" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9429322481155396</v>
       </c>
       <c r="G1353" t="n">
         <v>5.079999923706055</v>
@@ -78960,7 +78960,7 @@
         <v>0</v>
       </c>
       <c r="F1354" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9439541697502136</v>
       </c>
       <c r="G1354" t="n">
         <v>5.079999923706055</v>
@@ -79018,7 +79018,7 @@
         <v>0</v>
       </c>
       <c r="F1355" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9449760913848877</v>
       </c>
       <c r="G1355" t="n">
         <v>5.079999923706055</v>
@@ -79076,7 +79076,7 @@
         <v>0</v>
       </c>
       <c r="F1356" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9459980130195618</v>
       </c>
       <c r="G1356" t="n">
         <v>5.079999923706055</v>
@@ -79134,7 +79134,7 @@
         <v>0</v>
       </c>
       <c r="F1357" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9470199346542358</v>
       </c>
       <c r="G1357" t="n">
         <v>5.079999923706055</v>
@@ -79192,7 +79192,7 @@
         <v>0</v>
       </c>
       <c r="F1358" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9480418562889099</v>
       </c>
       <c r="G1358" t="n">
         <v>5.079999923706055</v>
@@ -79250,7 +79250,7 @@
         <v>0</v>
       </c>
       <c r="F1359" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.949063777923584</v>
       </c>
       <c r="G1359" t="n">
         <v>5.079999923706055</v>
@@ -79308,7 +79308,7 @@
         <v>0</v>
       </c>
       <c r="F1360" t="n">
-        <v>0.9327130317687988</v>
+        <v>0.9500856995582581</v>
       </c>
       <c r="G1360" t="n">
         <v>5.079999923706055</v>
@@ -79344,6 +79344,702 @@
         <v>34.06588745117188</v>
       </c>
       <c r="R1360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>26245.58513693956</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>0.9511076211929321</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>26436.0820376332</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>-6.991915702819824</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>94.29269409179688</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>-87.13100433349609</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>-1.082194447517395</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>1316.626752868127</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>-53.66865158081055</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>-69.34580993652344</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>15.67715454101562</v>
+      </c>
+      <c r="R1361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>27113.03000843266</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>0.9449566602706909</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>26508.80926287255</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>867.4448852539062</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>121.1618804931641</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>-87.13100433349609</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>-1.390571355819702</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>356.0351607051703</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>4.804378509521484</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>-54.51576995849609</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>59.32014846801758</v>
+      </c>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>26952.94130429872</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>0.945697546005249</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>26566.6823370713</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>-160.0886993408203</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>121.1618804931641</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>-83.63341522216797</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>-1.448725700378418</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>322.8532859845878</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>37.79122161865234</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>-36.05437088012695</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>73.84559631347656</v>
+      </c>
+      <c r="R1363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>27024.70313864521</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>0.9456214904785156</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>26625.88630048793</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>71.76183319091797</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>118.6284027099609</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>-83.63341522216797</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>-1.4184330701828</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>338.9868380802164</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>68.92953491210938</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>-15.05758953094482</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>83.98712921142578</v>
+      </c>
+      <c r="R1364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>27101.52779375529</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>0.9457021355628967</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>26719.32465638275</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>76.82465362548828</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>124.1158752441406</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>-81.43766021728516</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>-1.524059891700745</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>290.81786408693</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>98.66859436035156</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>7.687646865844727</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>90.98094940185547</v>
+      </c>
+      <c r="R1365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>27927.67807075597</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>0.954840362071991</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>26945.43464364436</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>826.1502685546875</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>157.4726867675781</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>-81.43766021728516</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>-1.933659315109253</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>207.105453203375</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>186.7477264404297</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>43.49966049194336</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>143.2480621337891</v>
+      </c>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>27265.62463094056</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.9520866870880127</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>27090.15572625257</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>-662.053466796875</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>136.0447998046875</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>-128.7271881103516</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>-1.056845903396606</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>1859.14258645216</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>200.8140258789062</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>74.96253204345703</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>125.8514938354492</v>
+      </c>
+      <c r="R1367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>27617.79707466413</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>0.9516838192939758</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>27286.18600307036</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>352.1724548339844</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>161.1999816894531</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>-112.5409774780273</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>-1.432366967201233</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>331.2850094924199</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>237.6396789550781</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>107.4979629516602</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>130.1417236328125</v>
+      </c>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>27467.99684038584</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>0.9495097994804382</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>27336.89555049225</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>-149.8002319335938</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>161.1999816894531</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>-99.48159027099609</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>-1.620400071144104</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>261.1863134276161</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>251.8336791992188</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>136.3651123046875</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>115.4685668945312</v>
+      </c>
+      <c r="R1369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B1370" t="n">
+        <v>27985.7686619</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>0.9442427754402161</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>27484.44231586386</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>517.7718505859375</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>198.1836853027344</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>-95.47376251220703</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>-2.075792074203491</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>192.9547602755217</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>301.3881530761719</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>169.3697204589844</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>132.0184478759766</v>
+      </c>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B1371" t="n">
+        <v>27876.74105849813</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0.9444399476051331</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>27606.16201869999</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>-109.0276031494141</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>193.7232818603516</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>-103.2614440917969</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>-1.876046538352966</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>214.1491854675473</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>328.0809020996094</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>201.1119537353516</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>126.9689559936523</v>
+      </c>
+      <c r="R1371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>27902.96253787604</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>0.945402979850769</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>27720.65269643152</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>26.22147941589355</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>195.5962371826172</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>-91.63172149658203</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>-2.134590864181519</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>188.1374988385152</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>347.3469848632812</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>230.3589630126953</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>116.9880142211914</v>
+      </c>
+      <c r="R1372" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Data Files/bitcoin/xlsx Files/final_data.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1372"/>
+  <dimension ref="A1:R1511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80040,6 +80040,8068 @@
         <v>116.9880142211914</v>
       </c>
       <c r="R1372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>27948.10365174851</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>0.9457616209983826</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>27723.57063657331</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>45.14111328125</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>198.8206024169922</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>-84.306640625</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>-2.358303070068359</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>173.6212776691257</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>362.0840759277344</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>256.7039794921875</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>105.3801040649414</v>
+      </c>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>27593.78253443966</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>0.9458720088005066</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>27770.45033707319</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>-354.3211059570312</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>198.8206024169922</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>-103.0202178955078</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>-1.92991840839386</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>207.5363196989748</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>341.239013671875</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>273.6109924316406</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>67.62802886962891</v>
+      </c>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>27392.2477027325</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>0.9418504238128662</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>27738.22899822582</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>-201.5348358154297</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>198.8206024169922</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>-116.9161376953125</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>-1.70054030418396</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>242.746957952153</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>304.9418029785156</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>279.8771667480469</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>25.06464195251465</v>
+      </c>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>26842.1904390924</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>0.9371815323829651</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>27648.82808375532</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>-550.0572509765625</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>136.8602600097656</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>-156.2059478759766</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>-0.8761526942253113</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>-707.4459723934111</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>229.1494598388672</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>269.7316284179688</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>-40.58214950561523</v>
+      </c>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>26729.1372058151</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>0.9486430883407593</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>27469.30930431462</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>-113.0532302856445</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>136.8602600097656</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>-152.8462677001953</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>-0.8954111933708191</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>-856.1253515585624</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>158.1381378173828</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>247.4129180908203</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>-89.27478790283203</v>
+      </c>
+      <c r="R1377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>26841.13622064441</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>0.9479669332504272</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>27321.3657560498</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>111.9990158081055</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>139.7343444824219</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>-152.8462677001953</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>-0.9142149686813354</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>-1065.70444540535</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>109.6347198486328</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>219.8572845458984</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>-110.2225570678711</v>
+      </c>
+      <c r="R1378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>26863.18356907992</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>0.9517375230789185</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>27172.82590336464</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>22.04734802246094</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>135.8216857910156</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>-152.8462677001953</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>-0.8886162638664246</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>-797.7971781542001</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>72.14283752441406</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>190.3143920898438</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>-118.1715545654297</v>
+      </c>
+      <c r="R1379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>27150.29700140705</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0.9511401057243347</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>27058.85352474443</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>287.1134338378906</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>97.31904602050781</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>-152.8462677001953</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>-0.6367119550704956</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>-175.2636779824286</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>64.85034942626953</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>165.2215881347656</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>-100.3712310791016</v>
+      </c>
+      <c r="R1380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>28513.30993247735</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>0.9466280341148376</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>27190.21458160696</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>1363.012939453125</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>194.6771087646484</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>-105.5567321777344</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>-1.844288945198059</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>218.4428703129987</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>167.1282043457031</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>165.6029052734375</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>1.52529513835907</v>
+      </c>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>28417.72175169982</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0.9465662837028503</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>27336.71087431658</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>-95.58818054199219</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>169.5219421386719</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>-112.3844604492188</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>-1.508410811424255</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>296.6913272661664</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>237.7305603027344</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>180.0284423828125</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>57.70212173461914</v>
+      </c>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>28328.24519813482</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>0.9484660029411316</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>27549.00441132264</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>-89.47655487060547</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>169.5219421386719</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>-108.0756301879883</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>-1.568549156188965</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>275.8862740101058</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>283.1988830566406</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>200.6625213623047</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>82.53636169433594</v>
+      </c>
+      <c r="R1383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>28715.74814240795</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>0.9451491832733154</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>27832.80597369305</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>387.5029296875</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>160.2170257568359</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>-108.0756301879883</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>-1.482452869415283</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>307.2741527782337</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>346.5068054199219</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>229.8313751220703</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>116.6754150390625</v>
+      </c>
+      <c r="R1384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>29677.39288847621</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>0.9447987079620361</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>28237.98549766902</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>961.644775390625</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>228.9059295654297</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>-100.2879409790039</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>-2.282487154006958</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>177.9734958697168</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>468.87060546875</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>277.6392211914062</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>191.2313842773438</v>
+      </c>
+      <c r="R1385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>29920.07449265145</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>0.9447355270385742</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>28674.68420103638</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>242.6816101074219</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>244.3673706054688</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>-100.2879409790039</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>-2.436657428741455</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>169.6060115529018</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>578.7556762695312</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>337.8625183105469</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>240.8931579589844</v>
+      </c>
+      <c r="R1386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>30019.38050086351</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>0.9442536234855652</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>29084.5532723873</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>99.30600738525391</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>248.2362823486328</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>-100.2879409790039</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>-2.4752357006073</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>167.7857805863007</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>666.17431640625</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>403.5248718261719</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>262.6494140625</v>
+      </c>
+      <c r="R1387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>32953.26276083098</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>0.9368669986724854</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>29718.83224786639</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>2933.88232421875</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>457.79931640625</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>-74.97929382324219</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>-6.105676651000977</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>119.5860422769744</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>961.1148071289062</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>515.0428466796875</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>446.0719604492188</v>
+      </c>
+      <c r="R1388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>33846.72425733224</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>0.9426736235618591</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>30494.40403438531</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>893.4614868164062</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>521.6179809570312</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>-60.58394622802734</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>-8.609838485717773</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>113.1408832937115</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>1252.514038085938</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>662.537109375</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>589.9769287109375</v>
+      </c>
+      <c r="R1389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>34471.98603167202</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>0.9460354447364807</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>31372.08129631919</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>625.2617797851562</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>566.279541015625</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>-21.29413986206055</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>-26.59321022033691</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>103.907286427303</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>1516.422973632812</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>833.3142700195312</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>683.1087036132812</v>
+      </c>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>34174.45155291259</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>0.948459804058075</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>32151.89606924843</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>-297.5344848632812</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>566.279541015625</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>-34.47137069702148</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>-16.42753028869629</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>106.4819185678855</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>1682.173095703125</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>1003.086059570312</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>679.0870971679688</v>
+      </c>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>33899.09305644032</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>0.9465690851211548</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>32754.9960932433</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>-275.3584899902344</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>558.2796020507812</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>-54.13983535766602</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>-10.31180858612061</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>110.7390527770032</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>1770.898315429688</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>1156.6484375</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>614.2498779296875</v>
+      </c>
+      <c r="R1392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>34092.63093283858</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>0.9458378553390503</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>33351.07558469861</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>193.5378723144531</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>570.5289306640625</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>-54.13983535766602</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>-10.53806209564209</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>110.484310507244</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>1835.670166015625</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>1292.452880859375</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>543.2173461914062</v>
+      </c>
+      <c r="R1393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>34556.24281476162</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>0.9456712007522583</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>33999.19877239833</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>463.6118774414062</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>583.135986328125</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>-54.13983535766602</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>-10.77092266082764</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>110.2344484914737</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>1902.481323242188</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>1414.45849609375</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>488.0227966308594</v>
+      </c>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>34498.70391946407</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>0.9428466558456421</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>34219.97608077449</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>-57.53889465332031</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>485.7778930664062</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>-58.249755859375</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>-8.339569091796875</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>113.6247773604345</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>1928.555541992188</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>1517.277954101562</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>411.277587890625</v>
+      </c>
+      <c r="R1395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>34672.2892841885</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>0.9461954236030579</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>34337.91394175396</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>173.5853576660156</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>498.1768493652344</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>-51.42203140258789</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>-9.688004493713379</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>111.5101231276944</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>1940.853393554688</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>1601.993041992188</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>338.8604125976562</v>
+      </c>
+      <c r="R1396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>35457.45491210553</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>0.9464282393455505</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>34478.69521038731</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>785.1656494140625</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>554.2601318359375</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>-45.03084945678711</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>-12.30845355987549</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>108.8429418662468</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>1991.0048828125</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>1679.79541015625</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>311.20947265625</v>
+      </c>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>34924.05545044328</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>0.9422329068183899</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>34585.78148146313</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>-533.3994750976562</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>526.5813598632812</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>-83.13080596923828</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>-6.334370136260986</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>118.7463550762889</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>1965.057373046875</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>1736.847778320312</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>228.2096252441406</v>
+      </c>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>34731.38136896784</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>0.9312958121299744</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>34704.6798118242</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>-192.6740875244141</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>457.8924255371094</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>-96.89324188232422</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>-4.725741386413574</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>126.8402949255432</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>1906.96435546875</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>1770.87109375</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>136.09326171875</v>
+      </c>
+      <c r="R1399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>35048.40783490107</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>0.9347413182258606</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>34841.2193692617</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>317.0264587402344</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>463.2027587890625</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>-96.89324188232422</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>-4.780547618865967</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>126.4511942406591</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>1865.007934570312</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>1789.698486328125</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>75.30947875976562</v>
+      </c>
+      <c r="R1400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>35061.92874919579</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>0.9359972476959229</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>34913.46021703801</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>13.52091407775879</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>457.0752563476562</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>-96.89324188232422</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>-4.717308044433594</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>126.9011885828871</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>1811.961059570312</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>1794.151000976562</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>17.81006813049316</v>
+      </c>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>35031.26888208706</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>0.9329003095626831</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>34989.54092598415</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>-30.65986633300781</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>247.5122375488281</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>-99.08323669433594</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>-2.498023509979248</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>166.7546291893102</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>1747.30517578125</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>1784.781860351562</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>-37.47665786743164</v>
+      </c>
+      <c r="R1402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>35436.53762957962</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>0.9398552775382996</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>35098.71926104003</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>405.2687377929688</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>212.6413269042969</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>-99.08323669433594</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>-2.146087884902954</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>187.2533408631946</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>1709.065673828125</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>1769.638671875</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>-60.57292556762695</v>
+      </c>
+      <c r="R1403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>35795.0806307102</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>0.9346188306808472</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>35146.95150655499</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>358.5429992675781</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>193.5899963378906</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>-99.08323669433594</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>-1.953811764717102</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>204.8424868323134</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>1688.231201171875</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>1753.357177734375</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>-65.12596893310547</v>
+      </c>
+      <c r="R1404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>36768.42081912672</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>0.9382197856903076</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>35410.43227350976</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>973.3402099609375</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>263.1142883300781</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>-77.83077239990234</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>-3.380594730377197</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>142.0063111852723</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>1730.314086914062</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>1748.74853515625</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>-18.4344425201416</v>
+      </c>
+      <c r="R1405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>37344.24900072035</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>0.935110867023468</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>35783.69907804583</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>575.8281860351562</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>304.244873046875</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>-58.16230773925781</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>-5.230962753295898</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>123.6352814999825</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>1789.501342773438</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>1756.899047851562</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>32.60226821899414</v>
+      </c>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-12</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>37122.72282430656</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>0.9394146800041199</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>36080.02979081804</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>-221.5261688232422</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>290.4207458496094</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>-73.98560333251953</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>-3.925368070602417</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>134.1837316839898</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>1797.808349609375</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>1765.080932617188</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>32.7274284362793</v>
+      </c>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>37067.69698212008</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>0.9351248145103455</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>36366.56810980722</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>-55.02584075927734</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>257.3056030273438</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>-77.91602325439453</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>-3.302345275878906</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>143.4339729676038</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>1779.439331054688</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>1767.95263671875</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>11.48672389984131</v>
+      </c>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>36549.16204829837</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>0.9354370832443237</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>36583.40999069456</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>-518.534912109375</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>257.3056030273438</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>-110.8443145751953</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>-2.321324348449707</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>175.6816411340528</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>1703.404541015625</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>1755.04296875</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>-51.63846588134766</v>
+      </c>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>35545.20143345407</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>0.919888436794281</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>36598.93339124804</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>-1003.960632324219</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>244.9066467285156</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>-182.5557861328125</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>-1.341544151306152</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>392.7878801621699</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>1544.3330078125</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>1712.901000976562</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>-168.5679473876953</v>
+      </c>
+      <c r="R1410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>37903.66245166294</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>0.9227007031440735</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>36900.15936566987</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>2358.4609375</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>357.2848815917969</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>-182.5557861328125</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>-1.957127213478088</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>204.4793189532526</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>1590.244506835938</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>1688.369750976562</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>-98.12519836425781</v>
+      </c>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>36201.51611146142</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>0.9211450815200806</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>36819.17297886054</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>-1702.146362304688</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>357.2848815917969</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>-266.0376892089844</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>-1.342985987663269</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>391.5571469013784</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>1472.308837890625</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>1645.157592773438</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>-172.8487091064453</v>
+      </c>
+      <c r="R1412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>36527.76022530742</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>0.9172760248184204</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>36702.53172523012</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>326.2441101074219</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>380.5880432128906</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>-252.2752685546875</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>-1.508622050285339</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>296.6096273128747</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>1389.15576171875</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>1593.957153320312</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>-204.8013916015625</v>
+      </c>
+      <c r="R1413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>36582.36844192274</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>0.9163590669631958</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>36625.33824203243</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>54.60821533203125</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>361.8438720703125</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>-252.2752685546875</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>-1.434321641921997</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>330.2440987343189</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>1312.532836914062</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>1537.67236328125</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>-225.1395111083984</v>
+      </c>
+      <c r="R1414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>37413.99460790531</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>0.9178315401077271</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>36674.80933143032</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>831.6261596679688</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>420.2799682617188</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>-252.2752685546875</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>-1.665957927703857</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>250.1596463168043</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>1303.883422851562</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>1490.91455078125</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>-187.0310974121094</v>
+      </c>
+      <c r="R1415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>37489.29847080202</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>0.9152102470397949</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>36809.11453464513</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>75.30386352539062</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>425.6588134765625</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>-250.0852813720703</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>-1.702054738998413</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>242.4390464436275</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>1288.255004882812</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>1450.382568359375</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>-162.1276702880859</v>
+      </c>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>35965.36036068078</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>0.9178017377853394</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>36869.13723853466</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>-1523.938110351562</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>396.7110595703125</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>-358.93798828125</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>-1.105235576629639</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>1050.248868297567</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>1139.76171875</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>1388.258422851562</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>-248.4967193603516</v>
+      </c>
+      <c r="R1417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>37464.83293220907</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>0.9207989573478699</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>36806.44730718411</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>1499.472534179688</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>478.2060241699219</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>-358.93798828125</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>-1.332280278205872</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>400.9507465914662</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>1130.048217773438</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>1336.616333007812</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>-206.5682067871094</v>
+      </c>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>37293.31612742673</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>0.9190593361854553</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>36962.41873803629</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>-171.5167999267578</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>408.6817321777344</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>-371.189208984375</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>-1.101006507873535</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>1090.035296600745</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>1095.877563476562</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>1288.468627929688</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>-192.5910491943359</v>
+      </c>
+      <c r="R1419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>37738.93169747125</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>0.9165332317352295</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>37135.4432340597</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>445.6155700683594</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>399.3808288574219</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>-371.189208984375</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>-1.075949430465698</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>1416.6649729393</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>1092.164794921875</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>1249.207885742188</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>-157.0430908203125</v>
+      </c>
+      <c r="R1420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>37809.85286625321</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>0.913684606552124</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>37310.7981518212</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>70.92116546630859</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>404.4466247558594</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>-355.3659057617188</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>-1.138113141059875</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>824.0438260948401</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>1082.467041015625</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>1215.859741210938</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>-133.3926239013672</v>
+      </c>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>37491.83818600814</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>0.9172627329826355</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>37321.91866297874</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>-318.0146789550781</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>404.4466247558594</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>-374.1508178710938</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>-1.080972194671631</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>1334.99236480657</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>1037.164672851562</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>1180.120727539062</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>-142.9560089111328</v>
+      </c>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>37250.16905148115</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>0.9129141569137573</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>37287.75731736147</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>-241.6691284179688</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>404.4466247558594</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>-354.3746948242188</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>-1.141296625137329</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>807.7312583463445</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>970.5733642578125</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>1138.211181640625</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>-167.6378631591797</v>
+      </c>
+      <c r="R1423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>37802.23604377473</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>0.9107151627540588</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>37550.16812923204</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>552.0670166015625</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>443.8799743652344</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>-282.6632080078125</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>-1.570349216461182</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>275.3311646964486</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>951.3795166015625</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>1100.844848632812</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>-149.4653472900391</v>
+      </c>
+      <c r="R1424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>37810.34641654128</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>0.9118489623069763</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>37599.52719842235</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>8.110372543334961</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>275.997802734375</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>-282.6632080078125</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>-0.9764191508293152</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>-4140.734258284779</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>926.1466674804688</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>1065.9052734375</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>-139.7585601806641</v>
+      </c>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>37711.81837585267</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>0.9183369874954224</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>37659.31323391177</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>-98.52803802490234</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>275.997802734375</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>-168.1190490722656</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>-1.641680598258972</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>255.8407761053662</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>887.9631958007812</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>1030.31689453125</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>-142.3536376953125</v>
+      </c>
+      <c r="R1426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>38688.25874179069</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>0.9245728850364685</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>37794.93138310027</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>976.4403686523438</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>322.4403686523438</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>-168.1190490722656</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>-1.917928814888</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>208.9409112020781</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>925.82080078125</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>1009.417663574219</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>-83.59683227539062</v>
+      </c>
+      <c r="R1427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>39481.66641606286</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>0.9252191185951233</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>38033.76189021593</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>793.4076538085938</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>375.2117614746094</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>-168.1190490722656</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>-2.231821775436401</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>181.1805751377558</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>1008.222412109375</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>1009.178588867188</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>-0.9561595320701599</v>
+      </c>
+      <c r="R1428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>39960.27542041052</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>0.9223545789718628</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>38386.39578084485</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>478.6090087890625</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>349.9962463378906</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>-168.1190490722656</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>-2.081835746765137</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>192.4354752549287</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>1099.472045898438</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>1027.2373046875</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>72.23475646972656</v>
+      </c>
+      <c r="R1429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>41974.33177254334</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>0.9255011677742004</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>39061.27616956802</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>2014.056396484375</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>488.4785766601562</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>-168.1190490722656</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>-2.905551433563232</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>152.4782451325486</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>1319.099731445312</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>1085.609741210938</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>233.4899749755859</v>
+      </c>
+      <c r="R1430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>44105.94477259938</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>0.927092432975769</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>39961.80598797154</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>2131.613037109375</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>640.7366333007812</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>-59.26633453369141</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>-10.8111400604248</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>110.1924950133582</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>1646.183471679688</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>1197.724487304688</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>448.4589538574219</v>
+      </c>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>43788.28880825234</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>0.9279949069023132</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>40815.79775821597</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>-317.6559753417969</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>533.6314697265625</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>-81.95604705810547</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>-6.511190891265869</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>118.1448980918327</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>1858.345703125</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>1329.848754882812</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>528.4968872070312</v>
+      </c>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>43270.11955970747</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>0.9330513477325439</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>41609.84078448095</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>-518.1692504882812</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>533.6314697265625</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>-106.7169342041016</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>-5.000438690185547</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>124.9972595766373</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>1962.056396484375</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>1456.290283203125</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>505.7661437988281</v>
+      </c>
+      <c r="R1433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>44202.17610943621</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>0.9310799837112427</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>42397.54326557316</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>932.0565795898438</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>568.3772583007812</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>-106.7169342041016</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>-5.326026916503906</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>123.1158992778731</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>2095.3037109375</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>1584.093017578125</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>511.2107849121094</v>
+      </c>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>43745.49199189547</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>0.928719699382782</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>43006.66120497783</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>-456.6841125488281</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>563.3114624023438</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>-139.3372344970703</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>-4.042792320251465</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>132.8645516447607</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>2139.39111328125</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>1695.152587890625</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>444.2384948730469</v>
+      </c>
+      <c r="R1435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>43757.95993761918</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>0.930573046207428</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>43549.18756457906</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>12.46794605255127</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>564.2020263671875</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>-116.6218948364258</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>-4.837873935699463</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>126.056092913108</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>2150.54638671875</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>1786.231323242188</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>364.3151245117188</v>
+      </c>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>41200.96272610168</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>0.9297222495079041</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>43438.70627223024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>-2556.997314453125</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>564.2020263671875</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>-282.0024719238281</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>-2.000698804855347</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>199.9301636023289</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>1930.801879882812</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>1815.1455078125</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>115.656379699707</v>
+      </c>
+      <c r="R1437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>41450.81938737744</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>0.9274348020553589</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>43059.40264576997</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>249.8566589355469</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>542.6155395507812</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>-282.0024719238281</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>-1.92415177822113</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>208.2073290051353</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>1756.5654296875</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>1803.429443359375</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>-46.86405944824219</v>
+      </c>
+      <c r="R1438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>42931.76182603245</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>0.9253544807434082</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>42937.04164830998</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>1480.9423828125</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>647.81787109375</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>-282.0024719238281</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>-2.297206401824951</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>177.088739478585</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>1718.175415039062</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>1786.378662109375</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>-68.20326995849609</v>
+      </c>
+      <c r="R1439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>43009.5954563739</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>0.9193572998046875</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>42899.82391926234</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>77.83363342285156</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>653.3773803710938</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>-274.9647521972656</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>-2.376222372055054</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>172.6626749944603</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>1674.726318359375</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>1764.048217773438</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>-89.32186126708984</v>
+      </c>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>41992.01418722399</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>0.921253502368927</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>42584.08650180345</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>-1017.581298828125</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>583.6316528320312</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>-347.6491394042969</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>-1.678795099258423</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>247.3198574013011</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>1540.42529296875</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>1719.323608398438</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>-178.8983306884766</v>
+      </c>
+      <c r="R1441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>42247.06788172229</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>0.9217396378517151</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>42370.02591463585</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>255.0536956787109</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>545.1777954101562</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>-347.6491394042969</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>-1.568184018135071</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>275.9993213115433</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>1437.9951171875</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>1663.057861328125</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>-225.0627899169922</v>
+      </c>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>41410.81963457586</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>0.9196428656578064</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>42034.72015705823</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>-836.2482299804688</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>510.991455078125</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>-407.3811340332031</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>-1.254332542419434</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>493.1859506625436</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>1274.646850585938</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>1585.375732421875</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>-310.7288208007812</v>
+      </c>
+      <c r="R1443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>42684.18255468339</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>0.9172514081001282</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>42246.60870399848</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>1273.362915039062</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>458.0847778320312</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>-407.3811340332031</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>-1.124462366104126</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>903.4556278225409</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>1233.720458984375</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>1515.044677734375</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>-281.32421875</v>
+      </c>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>42250.20618279751</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>0.9167044162750244</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>42360.80681762991</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>-433.9763793945312</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>305.8266906738281</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>-438.3794555664062</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>-0.6976301074028015</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>-230.7207418038132</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>1152.976806640625</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>1442.631103515625</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>-289.6542358398438</v>
+      </c>
+      <c r="R1445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>43634.1241684964</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>0.9133102893829346</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>42461.14429512476</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>1383.91796875</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>404.677978515625</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>-415.6897583007812</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>-0.973509669303894</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>-3674.961933552522</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>1186.974853515625</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>1391.499877929688</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>-204.5249633789062</v>
+      </c>
+      <c r="R1446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>43849.69959939619</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>0.9195751547813416</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>42581.15917269937</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>215.5754241943359</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>420.0762329101562</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>-378.6776733398438</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>-1.109324097633362</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>1014.711835157015</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>1217.281616210938</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>1356.65625</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>-139.3745574951172</v>
+      </c>
+      <c r="R1447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>44003.6960216438</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>0.9174826145172119</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>42868.5422919022</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>153.9964294433594</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>364.5005187988281</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>-378.6776733398438</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>-0.9625614285469055</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>-2571.04235805526</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>1239.438720703125</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>1333.212646484375</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>-93.77398681640625</v>
+      </c>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>43752.03088478376</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>0.9145402312278748</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>43083.53700662527</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>-251.6651306152344</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>364.5005187988281</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>-364.033447265625</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>-1.001283049583435</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>78040.84294739785</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>1222.597778320312</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>1311.089721679688</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>-88.49197387695312</v>
+      </c>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>43034.97106309152</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>0.921165943145752</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>43315.55863927037</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>-717.059814453125</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>363.6099548339844</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>-415.2520141601562</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>-0.8756368160247803</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>-704.0964754886587</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>1138.269165039062</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>1276.525634765625</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>-138.2564544677734</v>
+      </c>
+      <c r="R1450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>43638.23630220092</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>0.9130638837814331</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>43451.85203177288</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>603.2652587890625</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>406.7003173828125</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>-232.6093444824219</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>-1.74842631816864</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>233.613677129608</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>1107.351684570312</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>1242.690795898438</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>-135.3390960693359</v>
+      </c>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>42516.42694028252</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>0.9071328639984131</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>43489.88356855645</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>-1121.809326171875</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>388.8534240722656</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>-312.7385864257812</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>-1.24338161945343</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>510.8773625634112</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>981.0202026367188</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>1190.356689453125</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>-209.3364715576172</v>
+      </c>
+      <c r="R1452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>43418.46777504291</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>0.9150287508964539</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>43459.07551234881</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>902.0408325195312</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>347.5032958984375</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>-312.7385864257812</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>-1.111162185668945</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>999.5863349430348</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>942.8204956054688</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>1140.849487304688</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>-198.0289611816406</v>
+      </c>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>42600.65063315619</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>0.906755268573761</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>43280.63994574309</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>-817.817138671875</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>341.9437561035156</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>-371.1540832519531</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>-0.921298623085022</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>-1170.625535654072</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>836.9085693359375</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>1080.061279296875</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>-243.1526947021484</v>
+      </c>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>42074.70715618848</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>0.914639949798584</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>43005.0701078209</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>-525.9434814453125</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>341.9437561035156</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>-336.037109375</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>-1.017577290534973</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>5789.140947857005</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>702.4361572265625</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>1004.536254882812</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>-302.1001281738281</v>
+      </c>
+      <c r="R1455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="1" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>42220.61140121376</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>0.9119386672973633</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>42786.29589588234</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>145.9042510986328</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>334.1473693847656</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>-336.037109375</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>-0.9943763613700867</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>-17682.10656871594</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>600.71435546875</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>923.7718505859375</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>-323.0575256347656</v>
+      </c>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>42208.20217618648</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>0.9107184410095215</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>42668.1860548959</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>-12.40922546386719</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>334.1473693847656</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>-277.1914672851562</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>-1.205474972724915</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>586.6773892992076</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>513.18212890625</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>841.6539306640625</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>-328.4718017578125</v>
+      </c>
+      <c r="R1457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>44168.68118687473</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>0.9129065871238708</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>42743.96389556358</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>1960.47900390625</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>383.2270812988281</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>-277.1914672851562</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>-1.382535696029663</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>361.4135474486624</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>595.14599609375</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>792.3523559570312</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>-197.2063293457031</v>
+      </c>
+      <c r="R1458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>44994.67388689237</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>0.9159843921661377</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>43097.9991736507</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>825.99267578125</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>442.2265625</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>-246.1931610107422</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>-1.796258568763733</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>225.5873464719504</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>718.4716186523438</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>777.576171875</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>-59.10459899902344</v>
+      </c>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>42821.558989158</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>0.9174667596817017</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>43012.72648995286</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>-2173.114990234375</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>343.3752746582031</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>-401.4156494140625</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>-0.8554108142852783</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>-591.6145565900961</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>633.5526123046875</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>748.771484375</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>-115.218879699707</v>
+      </c>
+      <c r="R1460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>44195.57856209971</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>0.9188390374183655</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>43240.57333694479</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>1374.01953125</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>426.1212768554688</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>-401.4156494140625</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>-1.061546325683594</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>1724.79354574216</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>669.4090576171875</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>732.8989868164062</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>-63.48994445800781</v>
+      </c>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>44113.69973389081</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>0.9242187738418579</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>43531.85799090227</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>-81.87882995605469</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>415.1215515136719</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>-407.2641296386719</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>-1.019293189048767</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>5283.186797817038</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>683.3414916992188</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>722.9874877929688</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>-39.64601898193359</v>
+      </c>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>43956.12071720152</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>0.9206507802009583</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>43779.78789318623</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>-157.5790100097656</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>415.1215515136719</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>-400.543701171875</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>-1.036395192146301</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>2847.619371182783</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>673.8994140625</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>713.1698608398438</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>-39.27046203613281</v>
+      </c>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>43883.74387905174</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>0.9217330813407898</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>44019.15099359555</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>-72.37683868408203</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>415.1215515136719</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>-354.4949035644531</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>-1.171022534370422</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>684.7181593543231</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>653.04833984375</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>701.1455688476562</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>-48.09720230102539</v>
+      </c>
+      <c r="R1464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>46936.18556121751</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>0.9143213629722595</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>44414.50876135881</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>3052.441650390625</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>590.062744140625</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>-354.4949035644531</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>-1.664516687393188</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>250.4852984931108</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>872.76953125</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>735.4703369140625</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>137.2991943359375</v>
+      </c>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>46105.94607828697</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>0.9156337976455688</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>44573.26193155804</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>-830.239501953125</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>590.062744140625</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>-333.6684875488281</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>-1.768410086631775</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>230.1388494669395</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>968.73974609375</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>782.124267578125</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>186.6155242919922</v>
+      </c>
+      <c r="R1466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>46632.31314804979</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>0.9139927625656128</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>45117.65538282828</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>526.3670654296875</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>563.2288818359375</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>-333.6684875488281</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>-1.687989354133606</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>245.3510783944176</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>1074.879760742188</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>840.6753540039062</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>234.2043914794922</v>
+      </c>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>46314.35554160269</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>0.911257266998291</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>45420.33780847157</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>-317.9576110839844</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>563.2288818359375</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>-297.9642333984375</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>-1.890256643295288</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>212.3271631697841</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>1120.42431640625</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>896.6251220703125</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>223.7991943359375</v>
+      </c>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>42893.92960550481</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>0.9119137525558472</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>45246.08493298786</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>-3420.426025390625</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>563.2288818359375</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>-504.7129821777344</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>-1.115938901901245</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>962.5229737273377</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>870.4845581054688</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>891.3970336914062</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>-20.91245269775391</v>
+      </c>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>42848.47451640749</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>0.9136861562728882</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>45087.84976144585</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>-45.4550895690918</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>552.80712890625</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>-507.9597778320312</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>-1.088289260864258</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>1232.64129525879</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>661.11669921875</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>845.3409423828125</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>-184.2242431640625</v>
+      </c>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>41800.93282193406</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>0.9121919274330139</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>44790.30532471476</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>-1047.541748046875</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>552.80712890625</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>-581.8978271484375</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>-0.9500072598457336</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>-1900.290300452962</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>405.9833984375</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>757.469482421875</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>-351.4860534667969</v>
+      </c>
+      <c r="R1471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>42587.33603835441</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>0.9179701209068298</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>44169.04110716288</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>786.4031982421875</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>468.944580078125</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>-581.8978271484375</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>-0.8058882355690002</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>-415.1670650427836</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>264.1990661621094</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>658.8153686523438</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>-394.6163024902344</v>
+      </c>
+      <c r="R1472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>43148.00164342693</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>0.9178831577301025</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>43746.4776164686</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>560.6655883789062</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>449.9926452636719</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>-581.8978271484375</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>-0.7733190059661865</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>-341.1486347214951</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>194.8291168212891</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>566.0181274414062</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>-371.1890258789062</v>
+      </c>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>42713.85918693899</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>0.9169759154319763</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>43186.69847916705</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>-434.1424560546875</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>449.9926452636719</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>-457.6854858398438</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>-0.9831918478012085</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>-5849.497414630181</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>103.6267166137695</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>473.5398559570312</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>-369.9131164550781</v>
+      </c>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>41261.39479801012</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>0.917354941368103</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>42464.84694436811</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>-1452.46435546875</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>351.848388671875</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>-561.4329223632812</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>-0.6266970634460449</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>-167.8789731477451</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>-84.87519836425781</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>361.8568420410156</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>-446.7320251464844</v>
+      </c>
+      <c r="R1475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>41600.94093254464</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>0.9167272448539734</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>42280.13427680238</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>339.546142578125</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>376.1016845703125</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>-555.58447265625</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>-0.6769478321075439</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>-209.5475182550393</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>-204.5083312988281</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>248.5838012695312</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>-453.0921325683594</v>
+      </c>
+      <c r="R1476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>41626.10711003664</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>0.9170966744422913</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>42105.51036160654</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>25.16617774963379</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>377.8992919921875</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>-544.3287963867188</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>-0.6942481398582458</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>-227.0626175391942</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>-293.8998718261719</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>140.0870666503906</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>-433.9869384765625</v>
+      </c>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>41541.89945706261</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>0.9192971587181091</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>42068.50559519633</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>-84.20764923095703</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>377.8992919921875</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>-545.1738891601562</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>-0.6931720376014709</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>-225.9155149578305</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>-367.3041076660156</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>38.60883331298828</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>-405.9129333496094</v>
+      </c>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-23</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>39504.73005758438</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>0.9154030084609985</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>41628.13331222918</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>-2037.16943359375</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>159.8677215576172</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>-690.6859741210938</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>-0.2314622402191162</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>-30.11722538321064</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>-583.1380004882812</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>-85.74053192138672</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>-497.3974609375</v>
+      </c>
+      <c r="R1479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>39833.45410501688</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>0.9211907982826233</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>41154.62652102775</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>328.7240600585938</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>183.3480224609375</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>-631.3831787109375</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>-0.2903910577297211</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>-40.92268689467119</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>-719.3701171875</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>-212.4664459228516</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>-506.9036865234375</v>
+      </c>
+      <c r="R1480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>40123.67105847147</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>0.9186637401580811</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>40784.59964553238</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>290.2169494628906</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>166.4801483154297</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>-631.3831787109375</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>-0.2636753022670746</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>-35.80965280205589</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>-794.755615234375</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>-328.9242858886719</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>-465.831298828125</v>
+      </c>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>39938.28644155878</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>0.9215751886367798</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>40595.58416603934</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>-185.3846130371094</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>166.4801483154297</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>-621.9136352539062</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>-0.267690122127533</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>-36.5542169922598</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>-859.5497436523438</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>-435.0493774414062</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>-424.5003662109375</v>
+      </c>
+      <c r="R1482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>41862.9356109399</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>0.9220461845397949</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>40633.01197723866</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>1924.649169921875</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>303.955078125</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>-377.5975341796875</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>-0.8049710988998413</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>-412.7445286995493</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>-746.9856567382812</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>-497.4366149902344</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>-249.5490417480469</v>
+      </c>
+      <c r="R1483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>42119.61049464309</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>0.9226640462875366</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>40703.51246075387</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>256.6748962402344</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>322.2890014648438</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>-374.3507385253906</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>-0.8609279990196228</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>-619.0518468133797</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>-629.8062744140625</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>-523.9105834960938</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>-105.8957366943359</v>
+      </c>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>42026.57856232145</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>0.9231873750686646</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>40772.75233293371</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>-93.03192901611328</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>322.2890014648438</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>-306.1714477539062</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>-1.052642226219177</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>1999.61505133869</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>-538.2431640625</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>-526.777099609375</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>-11.46609210968018</v>
+      </c>
+      <c r="R1485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>43267.60927638767</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>0.9223207831382751</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>41310.30650704847</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>1241.03076171875</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>354.7624206542969</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>-306.1714477539062</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>-1.158704996109009</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>730.0998198158992</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>-361.3722534179688</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>-493.6961364746094</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>132.3238525390625</v>
+      </c>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>42892.03453014447</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>0.9238868355751038</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>41747.24656778097</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>-375.5747375488281</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>314.7148742675781</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>-332.9982299804688</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>-0.9450947046279907</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>-1721.318033228018</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>-248.6403656005859</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>-444.6849670410156</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>196.0446166992188</v>
+      </c>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>42583.26354663417</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>0.9237851500511169</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>42098.61692323279</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>-308.77099609375</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>314.7148742675781</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>-324.0431213378906</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>-0.9712129235267639</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>-3373.778841146796</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>-182.1154327392578</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>-392.1710510253906</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>210.0556182861328</v>
+      </c>
+      <c r="R1488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>43069.0434209368</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>0.9229203462600708</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>42545.86792028679</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>485.7798767089844</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>349.4134216308594</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>-220.2956695556641</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>-1.586111187934875</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>270.6160861310929</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>-89.16770935058594</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>-331.5704040527344</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>242.4026794433594</v>
+      </c>
+      <c r="R1489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>43170.65856159975</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>0.9258987307548523</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>42732.68548466677</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>101.6151428222656</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>332.4183654785156</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>-220.2956695556641</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>-1.508964538574219</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>296.4773328879921</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>-7.223213672637939</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>-266.7009582519531</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>259.4777526855469</v>
+      </c>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>42976.84829990829</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>0.9258508682250977</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>42855.14802827608</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>-193.8102569580078</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>330.6207580566406</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>-234.1392517089844</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>-1.412068963050842</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>342.6778436691506</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>41.5999870300293</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>-205.040771484375</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>246.6407470703125</v>
+      </c>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>42599.35997055978</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>0.927577793598175</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>42936.97394373871</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>-377.4883422851562</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>330.6207580566406</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>-255.0878753662109</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>-1.29610538482666</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>437.717600224662</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>49.26467514038086</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>-154.1796875</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>203.4443511962891</v>
+      </c>
+      <c r="R1492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>42648.45692113544</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>0.930684506893158</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>42848.5236072741</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>49.09695053100586</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>334.127685546875</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>-109.5757751464844</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>-3.049284219741821</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>148.7975239774798</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>58.62491989135742</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>-111.6187591552734</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>170.2436828613281</v>
+      </c>
+      <c r="R1493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>43087.78740814285</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>0.9319862723350525</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>42876.48830413102</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>439.3304748535156</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>342.0281677246094</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>-109.5757751464844</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>-3.121384620666504</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>147.1390213336246</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>100.3366622924805</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>-69.22767639160156</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>169.5643310546875</v>
+      </c>
+      <c r="R1494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>44247.41541547931</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>0.9281606674194336</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>43114.2242853946</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>1159.628051757812</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>404.1289367675781</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>-109.5757751464844</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>-3.688122987747192</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>137.200678248176</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>224.3793029785156</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>-10.50627994537354</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>234.8855895996094</v>
+      </c>
+      <c r="R1495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>45338.27118978949</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>0.9304116368293762</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>43438.39968094499</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>1090.855834960938</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>482.0472106933594</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>-96.33401489257812</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>-5.003914833068848</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>124.9755567098038</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>406.0265197753906</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>72.80027770996094</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>333.2262268066406</v>
+      </c>
+      <c r="R1496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-10</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>47143.24299107112</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>0.9270274639129639</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>44005.91174229804</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>1804.971801757812</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>473.4988403320312</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>-96.33401489257812</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>-4.915177822113037</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>125.5416239249618</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>687.7019653320312</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>195.7806243896484</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>491.9213562011719</v>
+      </c>
+      <c r="R1497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-11</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>47768.99525124794</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>0.9270975589752197</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>44690.50416391799</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>625.7522583007812</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>499.8615112304688</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>-96.33401489257812</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>-5.188837051391602</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>123.8729757525958</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>950.4683837890625</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>346.7181701660156</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>603.7501831054688</v>
+      </c>
+      <c r="R1498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>48189.88179303987</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>0.9284688234329224</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>45489.150138558</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>420.8865356445312</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>529.9248046875</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>-89.68888092041016</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>-5.908478736877441</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>120.3729116317892</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>1179.082885742188</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>513.1911010742188</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>665.8917846679688</v>
+      </c>
+      <c r="R1499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>50050.13609456397</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>0.9284746050834656</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>46546.53287761922</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>1860.254272460938</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>574.1550903320312</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>-89.68888092041016</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>-6.401630401611328</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>118.5129282117766</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>1493.156372070312</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>709.1842041015625</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>783.9722290039062</v>
+      </c>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>49732.14536955351</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>0.9343293309211731</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>47495.72687210645</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>-317.99072265625</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>574.1550903320312</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>-85.57573699951172</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>-6.709321022033691</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>117.5152176286113</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>1696.842529296875</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>906.7158813476562</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>790.126708984375</v>
+      </c>
+      <c r="R1501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>51790.16929752642</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>0.9318769574165344</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>48573.26314097033</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>2058.02392578125</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>721.1567993164062</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>-63.52066421508789</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>-11.35310554504395</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>109.6589379766839</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>2001.261352539062</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>1125.625</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>875.6364135742188</v>
+      </c>
+      <c r="R1502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>51958.23029105492</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>0.9299918413162231</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>49518.97158400825</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>168.0609893798828</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>698.4625854492188</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>-63.52066421508789</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>-10.9958324432373</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>110.0041694369128</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>2230.3662109375</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>1346.5732421875</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>883.7930297851562</v>
+      </c>
+      <c r="R1503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-17</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>52166.43430976192</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>0.9307126402854919</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>50236.57034382123</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>208.2040252685547</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>706.0760498046875</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>-63.52066421508789</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>-11.11569118499756</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>109.8856323339552</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>2401.05615234375</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>1557.4697265625</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>843.5862426757812</v>
+      </c>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>51684.51749264525</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0.9279043674468994</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>50795.93066402084</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>-481.9168090820312</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>706.0760498046875</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>-84.09970855712891</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>-8.395702362060547</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>113.5213665725577</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>2468.9814453125</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>1739.772094726562</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>729.209228515625</v>
+      </c>
+      <c r="R1505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>52138.48578873693</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0.9270099401473999</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>51360.01694912042</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>453.9682922363281</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>738.5023803710938</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>-57.13625335693359</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>-12.92528533935547</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>108.3855434698521</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>2530.276611328125</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>1897.873046875</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>632.4036254882812</v>
+      </c>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>51764.31318548776</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0.9302225708961487</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>51604.89939068096</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>-374.172607421875</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>734.9954833984375</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>-83.86286926269531</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>-8.764253616333008</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>112.8795377124094</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>2519.616455078125</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>2022.2216796875</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>497.3947448730469</v>
+      </c>
+      <c r="R1507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>52286.79372554667</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>0.9262042641639709</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>51969.84915582283</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>522.4805297851562</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>740.9347534179688</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>-83.86286926269531</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>-8.835075378417969</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>112.7631192420753</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>2524.230224609375</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>2122.623291015625</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>401.6068115234375</v>
+      </c>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>51842.75676625642</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>0.9254005551338196</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>51977.36165135569</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>-444.0369567871094</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>658.1041870117188</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>-115.5797958374023</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>-5.6939377784729</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>121.3040735094939</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>2463.656982421875</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>2190.830078125</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>272.8269348144531</v>
+      </c>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>51319.50012570267</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0.9246029257774353</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>51886.1144848768</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>-523.2566528320312</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>580.1859130859375</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>-152.9552612304688</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>-3.793173789978027</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>135.8015680082533</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>2346.38232421875</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>2221.940673828125</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>124.4417724609375</v>
+      </c>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>50841.0810947709</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>0.9268059730529785</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>5.079999923706055</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>51696.77831130665</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>-478.4190368652344</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>451.2593383789062</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>-187.1280517578125</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>-2.411500215530396</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>170.8466055755902</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>2189.5966796875</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>2215.4716796875</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>-25.87520599365234</v>
+      </c>
+      <c r="R1511" t="n">
         <v>0</v>
       </c>
     </row>
